--- a/REGULAR/CONSTANTE, SYLVIA C.xlsx
+++ b/REGULAR/CONSTANTE, SYLVIA C.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54B276E8-24C3-477C-9B3A-D9A3AEC4042E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -24,25 +25,17 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>PERIOD</t>
   </si>
@@ -220,11 +213,32 @@
   <si>
     <t>5/4,5,6,7/2020</t>
   </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>FL(1-0-0)</t>
+  </si>
+  <si>
+    <t>SP(1-0-0)</t>
+  </si>
+  <si>
+    <t>VL(3-0-0)</t>
+  </si>
+  <si>
+    <t>11/2,4,7</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -455,7 +469,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -594,6 +608,9 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -630,7 +647,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="10" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1081,7 +1098,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1124,7 +1141,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1188,7 +1205,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1248,7 +1265,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1314,7 +1331,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1377,7 +1394,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1475,7 +1492,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1534,7 +1551,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1599,7 +1616,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1642,7 +1659,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1717,7 +1734,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1903,7 +1920,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1969,7 +1986,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2027,7 +2044,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2093,7 +2110,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2149,7 +2166,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2224,7 +2241,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2267,7 +2284,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2333,7 +2350,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2389,7 +2406,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2487,7 +2504,7 @@
         <xdr:cNvPr id="2" name="Rectangle 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C99D8E5F-2D60-FF91-2593-A29CC276458B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2550,7 +2567,7 @@
         <xdr:cNvPr id="3" name="Rectangle 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7E6A331-FC2C-4EF9-8F5B-65908D453D1C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2616,25 +2633,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K136" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K139" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="18"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="17"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="18"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="16">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="15"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="14">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="15"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="12">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="13"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="12">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="10"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="11"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2646,13 +2663,13 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
-  <autoFilter ref="D2:G3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table2" displayName="Table2" ref="D2:G3" totalsRowShown="0" headerRowDxfId="9" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
+  <autoFilter ref="D2:G3" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="4">
-    <tableColumn id="1" name="DAYS"/>
-    <tableColumn id="2" name="HOURS"/>
-    <tableColumn id="3" name="MINUTES"/>
-    <tableColumn id="4" name="EQUIVALENT HOURS" dataDxfId="5">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="DAYS"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="HOURS"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="MINUTES"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="EQUIVALENT HOURS" dataDxfId="5">
       <calculatedColumnFormula>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2661,14 +2678,14 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
-  <autoFilter ref="J2:L3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table3" displayName="Table3" ref="J2:L3" totalsRowShown="0" headerRowBorderDxfId="4" tableBorderDxfId="3">
+  <autoFilter ref="J2:L3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="DATE STARTED" dataDxfId="2"/>
-    <tableColumn id="2" name="LEAVE EARN" dataDxfId="1">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="DATE STARTED" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="LEAVE EARN" dataDxfId="1">
       <calculatedColumnFormula>J4-1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="LEAVE EARNED" dataDxfId="0">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="LEAVE EARNED" dataDxfId="0">
       <calculatedColumnFormula>IF($J$4=1,1.25,IF(ISBLANK($J$3),"---",1.25-VLOOKUP($K$3,$I$8:$K$37,2)))</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -2972,7 +2989,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2990,16 +3007,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K136"/>
+  <dimension ref="A2:K139"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A4"/>
+      <pane ySplit="3576" topLeftCell="A66" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+      <selection pane="bottomLeft" activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3021,60 +3038,60 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="49" t="s">
+      <c r="B2" s="50" t="s">
         <v>45</v>
       </c>
-      <c r="C2" s="49"/>
+      <c r="C2" s="50"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="56"/>
-      <c r="G2" s="56"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="51"/>
+      <c r="J2" s="51"/>
+      <c r="K2" s="52"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="49"/>
-      <c r="C3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="57"/>
-      <c r="G3" s="54"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="55"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="53"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="54"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="49" t="s">
+      <c r="B4" s="50" t="s">
         <v>42</v>
       </c>
-      <c r="C4" s="49"/>
+      <c r="C4" s="50"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="54"/>
-      <c r="K4" s="55"/>
+      <c r="J4" s="55"/>
+      <c r="K4" s="56"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -3100,18 +3117,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="48" t="s">
+      <c r="C7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48" t="s">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="48"/>
-      <c r="I7" s="48"/>
-      <c r="J7" s="48"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -3158,7 +3175,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>23.5</v>
+        <v>51</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3168,13 +3185,13 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>26.5</v>
+        <v>64</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="60" t="s">
+      <c r="A10" s="48" t="s">
         <v>43</v>
       </c>
       <c r="B10" s="20"/>
@@ -3336,7 +3353,7 @@
       <c r="K17" s="20"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="60" t="s">
+      <c r="A18" s="48" t="s">
         <v>44</v>
       </c>
       <c r="B18" s="20"/>
@@ -3396,7 +3413,7 @@
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="40">
-        <f t="shared" ref="A21:A42" si="0">EDATE(A20,1)</f>
+        <f t="shared" ref="A21:A31" si="0">EDATE(A20,1)</f>
         <v>43525</v>
       </c>
       <c r="B21" s="20"/>
@@ -3635,7 +3652,7 @@
       <c r="K31" s="20"/>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A32" s="60" t="s">
+      <c r="A32" s="48" t="s">
         <v>46</v>
       </c>
       <c r="B32" s="20"/>
@@ -3654,7 +3671,6 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="40">
-        <f>EDATE(A31,1)</f>
         <v>43831</v>
       </c>
       <c r="B33" s="20"/>
@@ -3675,7 +3691,6 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="40">
-        <f>EDATE(A33,1)</f>
         <v>43862</v>
       </c>
       <c r="B34" s="20" t="s">
@@ -3766,7 +3781,6 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="40">
-        <f>EDATE(A34,1)</f>
         <v>43891</v>
       </c>
       <c r="B38" s="20"/>
@@ -3787,7 +3801,6 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="40">
-        <f t="shared" si="0"/>
         <v>43922</v>
       </c>
       <c r="B39" s="20"/>
@@ -3808,7 +3821,6 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="40">
-        <f t="shared" si="0"/>
         <v>43952</v>
       </c>
       <c r="B40" s="20"/>
@@ -3829,7 +3841,6 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="40">
-        <f t="shared" si="0"/>
         <v>43983</v>
       </c>
       <c r="B41" s="20"/>
@@ -3850,7 +3861,6 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="40">
-        <f t="shared" si="0"/>
         <v>44013</v>
       </c>
       <c r="B42" s="20"/>
@@ -3870,15 +3880,19 @@
       <c r="K42" s="20"/>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A43" s="40"/>
+      <c r="A43" s="40">
+        <v>44044</v>
+      </c>
       <c r="B43" s="20"/>
-      <c r="C43" s="13"/>
+      <c r="C43" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D43" s="39"/>
       <c r="E43" s="9"/>
       <c r="F43" s="20"/>
-      <c r="G43" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G43" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H43" s="39"/>
       <c r="I43" s="9"/>
@@ -3886,15 +3900,19 @@
       <c r="K43" s="20"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A44" s="40"/>
+      <c r="A44" s="40">
+        <v>44075</v>
+      </c>
       <c r="B44" s="20"/>
-      <c r="C44" s="13"/>
+      <c r="C44" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D44" s="39"/>
       <c r="E44" s="9"/>
       <c r="F44" s="20"/>
-      <c r="G44" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G44" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H44" s="39"/>
       <c r="I44" s="9"/>
@@ -3902,15 +3920,19 @@
       <c r="K44" s="20"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
+      <c r="A45" s="40">
+        <v>44105</v>
+      </c>
       <c r="B45" s="20"/>
-      <c r="C45" s="13"/>
+      <c r="C45" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D45" s="39"/>
       <c r="E45" s="9"/>
       <c r="F45" s="20"/>
-      <c r="G45" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G45" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H45" s="39"/>
       <c r="I45" s="9"/>
@@ -3918,15 +3940,19 @@
       <c r="K45" s="20"/>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
+      <c r="A46" s="40">
+        <v>44136</v>
+      </c>
       <c r="B46" s="20"/>
-      <c r="C46" s="13"/>
+      <c r="C46" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D46" s="39"/>
       <c r="E46" s="9"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G46" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H46" s="39"/>
       <c r="I46" s="9"/>
@@ -3934,15 +3960,23 @@
       <c r="K46" s="20"/>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
-      <c r="B47" s="20"/>
-      <c r="C47" s="13"/>
-      <c r="D47" s="39"/>
+      <c r="A47" s="40">
+        <v>44166</v>
+      </c>
+      <c r="B47" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C47" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D47" s="39">
+        <v>1</v>
+      </c>
       <c r="E47" s="9"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G47" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H47" s="39"/>
       <c r="I47" s="9"/>
@@ -3950,7 +3984,9 @@
       <c r="K47" s="20"/>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
+      <c r="A48" s="48" t="s">
+        <v>59</v>
+      </c>
       <c r="B48" s="20"/>
       <c r="C48" s="13"/>
       <c r="D48" s="39"/>
@@ -3966,15 +4002,19 @@
       <c r="K48" s="20"/>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
+      <c r="A49" s="40">
+        <v>44197</v>
+      </c>
       <c r="B49" s="20"/>
-      <c r="C49" s="13"/>
+      <c r="C49" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D49" s="39"/>
       <c r="E49" s="9"/>
       <c r="F49" s="20"/>
-      <c r="G49" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G49" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H49" s="39"/>
       <c r="I49" s="9"/>
@@ -3982,15 +4022,19 @@
       <c r="K49" s="20"/>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
+      <c r="A50" s="40">
+        <v>44228</v>
+      </c>
       <c r="B50" s="20"/>
-      <c r="C50" s="13"/>
+      <c r="C50" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D50" s="39"/>
       <c r="E50" s="9"/>
       <c r="F50" s="20"/>
-      <c r="G50" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G50" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H50" s="39"/>
       <c r="I50" s="9"/>
@@ -3998,15 +4042,19 @@
       <c r="K50" s="20"/>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
+      <c r="A51" s="40">
+        <v>44256</v>
+      </c>
       <c r="B51" s="20"/>
-      <c r="C51" s="13"/>
+      <c r="C51" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D51" s="39"/>
       <c r="E51" s="9"/>
       <c r="F51" s="20"/>
-      <c r="G51" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G51" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H51" s="39"/>
       <c r="I51" s="9"/>
@@ -4014,15 +4062,19 @@
       <c r="K51" s="20"/>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
+      <c r="A52" s="40">
+        <v>44287</v>
+      </c>
       <c r="B52" s="20"/>
-      <c r="C52" s="13"/>
+      <c r="C52" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D52" s="39"/>
       <c r="E52" s="9"/>
       <c r="F52" s="20"/>
-      <c r="G52" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G52" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H52" s="39"/>
       <c r="I52" s="9"/>
@@ -4030,15 +4082,19 @@
       <c r="K52" s="20"/>
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
+      <c r="A53" s="40">
+        <v>44317</v>
+      </c>
       <c r="B53" s="20"/>
-      <c r="C53" s="13"/>
+      <c r="C53" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D53" s="39"/>
       <c r="E53" s="9"/>
       <c r="F53" s="20"/>
-      <c r="G53" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G53" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H53" s="39"/>
       <c r="I53" s="9"/>
@@ -4046,15 +4102,19 @@
       <c r="K53" s="20"/>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
+      <c r="A54" s="40">
+        <v>44348</v>
+      </c>
       <c r="B54" s="20"/>
-      <c r="C54" s="13"/>
+      <c r="C54" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D54" s="39"/>
       <c r="E54" s="9"/>
       <c r="F54" s="20"/>
-      <c r="G54" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G54" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H54" s="39"/>
       <c r="I54" s="9"/>
@@ -4062,15 +4122,19 @@
       <c r="K54" s="20"/>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
+      <c r="A55" s="40">
+        <v>44378</v>
+      </c>
       <c r="B55" s="20"/>
-      <c r="C55" s="13"/>
+      <c r="C55" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D55" s="39"/>
       <c r="E55" s="9"/>
       <c r="F55" s="20"/>
-      <c r="G55" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G55" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H55" s="39"/>
       <c r="I55" s="9"/>
@@ -4078,15 +4142,19 @@
       <c r="K55" s="20"/>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
+      <c r="A56" s="40">
+        <v>44409</v>
+      </c>
       <c r="B56" s="20"/>
-      <c r="C56" s="13"/>
+      <c r="C56" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D56" s="39"/>
       <c r="E56" s="9"/>
       <c r="F56" s="20"/>
-      <c r="G56" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G56" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H56" s="39"/>
       <c r="I56" s="9"/>
@@ -4094,15 +4162,19 @@
       <c r="K56" s="20"/>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A57" s="40"/>
+      <c r="A57" s="40">
+        <v>44440</v>
+      </c>
       <c r="B57" s="20"/>
-      <c r="C57" s="13"/>
+      <c r="C57" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D57" s="39"/>
       <c r="E57" s="9"/>
       <c r="F57" s="20"/>
-      <c r="G57" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G57" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H57" s="39"/>
       <c r="I57" s="9"/>
@@ -4110,15 +4182,19 @@
       <c r="K57" s="20"/>
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A58" s="40"/>
+      <c r="A58" s="40">
+        <v>44470</v>
+      </c>
       <c r="B58" s="20"/>
-      <c r="C58" s="13"/>
+      <c r="C58" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D58" s="39"/>
       <c r="E58" s="9"/>
       <c r="F58" s="20"/>
-      <c r="G58" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G58" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H58" s="39"/>
       <c r="I58" s="9"/>
@@ -4126,15 +4202,19 @@
       <c r="K58" s="20"/>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A59" s="40"/>
+      <c r="A59" s="40">
+        <v>44501</v>
+      </c>
       <c r="B59" s="20"/>
-      <c r="C59" s="13"/>
+      <c r="C59" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D59" s="39"/>
       <c r="E59" s="9"/>
       <c r="F59" s="20"/>
-      <c r="G59" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G59" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H59" s="39"/>
       <c r="I59" s="9"/>
@@ -4142,15 +4222,23 @@
       <c r="K59" s="20"/>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A60" s="40"/>
-      <c r="B60" s="20"/>
-      <c r="C60" s="13"/>
-      <c r="D60" s="39"/>
+      <c r="A60" s="40">
+        <v>44531</v>
+      </c>
+      <c r="B60" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C60" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D60" s="39">
+        <v>5</v>
+      </c>
       <c r="E60" s="9"/>
       <c r="F60" s="20"/>
-      <c r="G60" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G60" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H60" s="39"/>
       <c r="I60" s="9"/>
@@ -4158,7 +4246,9 @@
       <c r="K60" s="20"/>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A61" s="40"/>
+      <c r="A61" s="48" t="s">
+        <v>60</v>
+      </c>
       <c r="B61" s="20"/>
       <c r="C61" s="13"/>
       <c r="D61" s="39"/>
@@ -4174,15 +4264,19 @@
       <c r="K61" s="20"/>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A62" s="40"/>
+      <c r="A62" s="40">
+        <v>44562</v>
+      </c>
       <c r="B62" s="20"/>
-      <c r="C62" s="13"/>
+      <c r="C62" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D62" s="39"/>
       <c r="E62" s="9"/>
       <c r="F62" s="20"/>
-      <c r="G62" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G62" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H62" s="39"/>
       <c r="I62" s="9"/>
@@ -4190,15 +4284,19 @@
       <c r="K62" s="20"/>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A63" s="40"/>
+      <c r="A63" s="40">
+        <v>44593</v>
+      </c>
       <c r="B63" s="20"/>
-      <c r="C63" s="13"/>
+      <c r="C63" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D63" s="39"/>
       <c r="E63" s="9"/>
       <c r="F63" s="20"/>
-      <c r="G63" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G63" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H63" s="39"/>
       <c r="I63" s="9"/>
@@ -4206,15 +4304,19 @@
       <c r="K63" s="20"/>
     </row>
     <row r="64" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A64" s="40"/>
+      <c r="A64" s="40">
+        <v>44621</v>
+      </c>
       <c r="B64" s="20"/>
-      <c r="C64" s="13"/>
+      <c r="C64" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D64" s="39"/>
       <c r="E64" s="9"/>
       <c r="F64" s="20"/>
-      <c r="G64" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G64" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H64" s="39"/>
       <c r="I64" s="9"/>
@@ -4222,15 +4324,19 @@
       <c r="K64" s="20"/>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A65" s="40"/>
+      <c r="A65" s="40">
+        <v>44652</v>
+      </c>
       <c r="B65" s="20"/>
-      <c r="C65" s="13"/>
+      <c r="C65" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D65" s="39"/>
       <c r="E65" s="9"/>
       <c r="F65" s="20"/>
-      <c r="G65" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G65" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H65" s="39"/>
       <c r="I65" s="9"/>
@@ -4238,15 +4344,19 @@
       <c r="K65" s="20"/>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A66" s="40"/>
+      <c r="A66" s="40">
+        <v>44682</v>
+      </c>
       <c r="B66" s="20"/>
-      <c r="C66" s="13"/>
+      <c r="C66" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D66" s="39"/>
       <c r="E66" s="9"/>
       <c r="F66" s="20"/>
-      <c r="G66" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G66" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H66" s="39"/>
       <c r="I66" s="9"/>
@@ -4254,15 +4364,19 @@
       <c r="K66" s="20"/>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A67" s="40"/>
+      <c r="A67" s="40">
+        <v>44713</v>
+      </c>
       <c r="B67" s="20"/>
-      <c r="C67" s="13"/>
+      <c r="C67" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D67" s="39"/>
       <c r="E67" s="9"/>
       <c r="F67" s="20"/>
-      <c r="G67" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G67" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H67" s="39"/>
       <c r="I67" s="9"/>
@@ -4270,15 +4384,19 @@
       <c r="K67" s="20"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A68" s="40"/>
+      <c r="A68" s="40">
+        <v>44743</v>
+      </c>
       <c r="B68" s="20"/>
-      <c r="C68" s="13"/>
+      <c r="C68" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D68" s="39"/>
       <c r="E68" s="9"/>
       <c r="F68" s="20"/>
-      <c r="G68" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G68" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H68" s="39"/>
       <c r="I68" s="9"/>
@@ -4286,15 +4404,19 @@
       <c r="K68" s="20"/>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A69" s="40"/>
+      <c r="A69" s="40">
+        <v>44774</v>
+      </c>
       <c r="B69" s="20"/>
-      <c r="C69" s="13"/>
+      <c r="C69" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D69" s="39"/>
       <c r="E69" s="9"/>
       <c r="F69" s="20"/>
-      <c r="G69" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G69" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H69" s="39"/>
       <c r="I69" s="9"/>
@@ -4302,15 +4424,19 @@
       <c r="K69" s="20"/>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A70" s="40"/>
+      <c r="A70" s="40">
+        <v>44805</v>
+      </c>
       <c r="B70" s="20"/>
-      <c r="C70" s="13"/>
+      <c r="C70" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D70" s="39"/>
       <c r="E70" s="9"/>
       <c r="F70" s="20"/>
-      <c r="G70" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G70" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H70" s="39"/>
       <c r="I70" s="9"/>
@@ -4318,15 +4444,19 @@
       <c r="K70" s="20"/>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A71" s="40"/>
+      <c r="A71" s="40">
+        <v>44835</v>
+      </c>
       <c r="B71" s="20"/>
-      <c r="C71" s="13"/>
+      <c r="C71" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D71" s="39"/>
       <c r="E71" s="9"/>
       <c r="F71" s="20"/>
-      <c r="G71" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G71" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H71" s="39"/>
       <c r="I71" s="9"/>
@@ -4334,26 +4464,40 @@
       <c r="K71" s="20"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A72" s="40"/>
-      <c r="B72" s="20"/>
-      <c r="C72" s="13"/>
-      <c r="D72" s="39"/>
+      <c r="A72" s="40">
+        <v>44866</v>
+      </c>
+      <c r="B72" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C72" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D72" s="39">
+        <v>1</v>
+      </c>
       <c r="E72" s="9"/>
       <c r="F72" s="20"/>
-      <c r="G72" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G72" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H72" s="39"/>
       <c r="I72" s="9"/>
       <c r="J72" s="11"/>
-      <c r="K72" s="20"/>
+      <c r="K72" s="61">
+        <v>44868</v>
+      </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="40"/>
-      <c r="B73" s="20"/>
+      <c r="B73" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="C73" s="13"/>
-      <c r="D73" s="39"/>
+      <c r="D73" s="39">
+        <v>3</v>
+      </c>
       <c r="E73" s="9"/>
       <c r="F73" s="20"/>
       <c r="G73" s="13" t="str">
@@ -4363,18 +4507,24 @@
       <c r="H73" s="39"/>
       <c r="I73" s="9"/>
       <c r="J73" s="11"/>
-      <c r="K73" s="20"/>
+      <c r="K73" s="61" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
+      <c r="A74" s="40">
+        <v>44896</v>
+      </c>
       <c r="B74" s="20"/>
-      <c r="C74" s="13"/>
+      <c r="C74" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D74" s="39"/>
       <c r="E74" s="9"/>
       <c r="F74" s="20"/>
-      <c r="G74" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G74" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H74" s="39"/>
       <c r="I74" s="9"/>
@@ -4382,7 +4532,9 @@
       <c r="K74" s="20"/>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A75" s="40"/>
+      <c r="A75" s="48" t="s">
+        <v>61</v>
+      </c>
       <c r="B75" s="20"/>
       <c r="C75" s="13"/>
       <c r="D75" s="39"/>
@@ -4398,15 +4550,19 @@
       <c r="K75" s="20"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A76" s="40"/>
+      <c r="A76" s="40">
+        <v>44927</v>
+      </c>
       <c r="B76" s="20"/>
-      <c r="C76" s="13"/>
+      <c r="C76" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D76" s="39"/>
       <c r="E76" s="9"/>
       <c r="F76" s="20"/>
-      <c r="G76" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G76" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H76" s="39"/>
       <c r="I76" s="9"/>
@@ -4414,7 +4570,9 @@
       <c r="K76" s="20"/>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A77" s="40"/>
+      <c r="A77" s="40">
+        <v>44958</v>
+      </c>
       <c r="B77" s="20"/>
       <c r="C77" s="13"/>
       <c r="D77" s="39"/>
@@ -4430,7 +4588,9 @@
       <c r="K77" s="20"/>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A78" s="40"/>
+      <c r="A78" s="40">
+        <v>44986</v>
+      </c>
       <c r="B78" s="20"/>
       <c r="C78" s="13"/>
       <c r="D78" s="39"/>
@@ -4446,7 +4606,9 @@
       <c r="K78" s="20"/>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A79" s="40"/>
+      <c r="A79" s="40">
+        <v>45017</v>
+      </c>
       <c r="B79" s="20"/>
       <c r="C79" s="13"/>
       <c r="D79" s="39"/>
@@ -4462,7 +4624,9 @@
       <c r="K79" s="20"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A80" s="40"/>
+      <c r="A80" s="40">
+        <v>45047</v>
+      </c>
       <c r="B80" s="20"/>
       <c r="C80" s="13"/>
       <c r="D80" s="39"/>
@@ -4478,7 +4642,9 @@
       <c r="K80" s="20"/>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A81" s="40"/>
+      <c r="A81" s="40">
+        <v>45078</v>
+      </c>
       <c r="B81" s="20"/>
       <c r="C81" s="13"/>
       <c r="D81" s="39"/>
@@ -4494,7 +4660,9 @@
       <c r="K81" s="20"/>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A82" s="40"/>
+      <c r="A82" s="40">
+        <v>45108</v>
+      </c>
       <c r="B82" s="20"/>
       <c r="C82" s="13"/>
       <c r="D82" s="39"/>
@@ -4510,7 +4678,9 @@
       <c r="K82" s="20"/>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A83" s="40"/>
+      <c r="A83" s="40">
+        <v>45139</v>
+      </c>
       <c r="B83" s="20"/>
       <c r="C83" s="13"/>
       <c r="D83" s="39"/>
@@ -4526,7 +4696,9 @@
       <c r="K83" s="20"/>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A84" s="40"/>
+      <c r="A84" s="40">
+        <v>45170</v>
+      </c>
       <c r="B84" s="20"/>
       <c r="C84" s="13"/>
       <c r="D84" s="39"/>
@@ -4542,7 +4714,9 @@
       <c r="K84" s="20"/>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A85" s="40"/>
+      <c r="A85" s="40">
+        <v>45200</v>
+      </c>
       <c r="B85" s="20"/>
       <c r="C85" s="13"/>
       <c r="D85" s="39"/>
@@ -4558,7 +4732,9 @@
       <c r="K85" s="20"/>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A86" s="40"/>
+      <c r="A86" s="40">
+        <v>45231</v>
+      </c>
       <c r="B86" s="20"/>
       <c r="C86" s="13"/>
       <c r="D86" s="39"/>
@@ -4574,7 +4750,9 @@
       <c r="K86" s="20"/>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A87" s="40"/>
+      <c r="A87" s="40">
+        <v>45261</v>
+      </c>
       <c r="B87" s="20"/>
       <c r="C87" s="13"/>
       <c r="D87" s="39"/>
@@ -5358,20 +5536,68 @@
       <c r="K135" s="20"/>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A136" s="41"/>
-      <c r="B136" s="15"/>
-      <c r="C136" s="42"/>
-      <c r="D136" s="43"/>
+      <c r="A136" s="40"/>
+      <c r="B136" s="20"/>
+      <c r="C136" s="13"/>
+      <c r="D136" s="39"/>
       <c r="E136" s="9"/>
-      <c r="F136" s="15"/>
-      <c r="G136" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H136" s="43"/>
+      <c r="F136" s="20"/>
+      <c r="G136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H136" s="39"/>
       <c r="I136" s="9"/>
-      <c r="J136" s="12"/>
-      <c r="K136" s="15"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="20"/>
+    </row>
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A137" s="40"/>
+      <c r="B137" s="20"/>
+      <c r="C137" s="13"/>
+      <c r="D137" s="39"/>
+      <c r="E137" s="9"/>
+      <c r="F137" s="20"/>
+      <c r="G137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H137" s="39"/>
+      <c r="I137" s="9"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="20"/>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A138" s="40"/>
+      <c r="B138" s="20"/>
+      <c r="C138" s="13"/>
+      <c r="D138" s="39"/>
+      <c r="E138" s="9"/>
+      <c r="F138" s="20"/>
+      <c r="G138" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H138" s="39"/>
+      <c r="I138" s="9"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="20"/>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A139" s="41"/>
+      <c r="B139" s="15"/>
+      <c r="C139" s="42"/>
+      <c r="D139" s="43"/>
+      <c r="E139" s="9"/>
+      <c r="F139" s="15"/>
+      <c r="G139" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H139" s="43"/>
+      <c r="I139" s="9"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -5388,10 +5614,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0100-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -5414,7 +5640,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:L67"/>
   <sheetViews>
@@ -5437,17 +5663,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="J1" s="59" t="s">
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="G1" s="59"/>
+      <c r="J1" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="59"/>
-      <c r="L1" s="59"/>
+      <c r="K1" s="60"/>
+      <c r="L1" s="60"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -5522,12 +5748,12 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="59" t="s">
+      <c r="I6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="59"/>
-      <c r="K6" s="59"/>
-      <c r="L6" s="59"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
